--- a/reportes/I10.10.2.30.xlsx
+++ b/reportes/I10.10.2.30.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,48 +40,51 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>Yac</t>
-  </si>
-  <si>
-    <t>Gonón</t>
-  </si>
-  <si>
-    <t>Antonia</t>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>/201761947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección actual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle o lugar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departamento </t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>28 ave. 23-69</t>
+  </si>
+  <si>
+    <t>Z. 7 Col. 4 de febrero</t>
+  </si>
+  <si>
+    <t>Guatemal</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>/201761743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirección actual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle o lugar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municipio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departamento </t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>Dpto. de Protección Especial</t>
-  </si>
-  <si>
-    <t>de 1ra. Infancia</t>
-  </si>
-  <si>
-    <t>Zacapa</t>
-  </si>
-  <si>
-    <t>79410963</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dirección habitual </t>
   </si>
   <si>
@@ -100,16 +103,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>2014-10-09</t>
+    <t>2014-10-29</t>
   </si>
   <si>
     <t>3 años</t>
   </si>
   <si>
-    <t>Suchitepequez, Mazatenango</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>Masculino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -127,10 +127,10 @@
     <t>Soltero</t>
   </si>
   <si>
-    <t>Guatemalteca</t>
-  </si>
-  <si>
-    <t>Ins. Nac. 26452</t>
+    <t>Guatemalteco</t>
+  </si>
+  <si>
+    <t>Ins. Nac. 331027</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -145,7 +145,10 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>Paulina Grissel Yac Gonón</t>
+    <t>Fredy Misael Pérez García</t>
+  </si>
+  <si>
+    <t>Miryam Angélica Hernández González</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -157,13 +160,13 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>Olga Marina Salguero y Salguero de Morales</t>
-  </si>
-  <si>
-    <t>Encargada</t>
-  </si>
-  <si>
-    <t>45092507</t>
+    <t>Miryam Hernández</t>
+  </si>
+  <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>33315313</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -193,7 +196,7 @@
     <t>23/10/2017</t>
   </si>
   <si>
-    <t>8:42:54</t>
+    <t>12:20:11</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1141,17 +1144,17 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1168,68 +1171,68 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
@@ -1265,7 +1268,7 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
@@ -1298,14 +1301,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1332,14 +1335,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1349,18 +1352,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1370,35 +1373,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1408,14 +1411,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1425,39 +1428,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1469,7 +1472,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1510,7 +1513,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1521,7 +1524,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1553,7 +1556,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1564,7 +1567,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1609,7 +1612,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1620,7 +1623,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1653,46 +1656,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1712,7 +1715,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1721,13 +1724,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1742,7 +1745,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/I10.10.2.30.xlsx
+++ b/reportes/I10.10.2.30.xlsx
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>Hernández</t>
-  </si>
-  <si>
-    <t>Anthony</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>/201761947</t>
+    <t>ALVIZURES</t>
+  </si>
+  <si>
+    <t>PÉREZ</t>
+  </si>
+  <si>
+    <t>MELANY</t>
+  </si>
+  <si>
+    <t>THAILY</t>
+  </si>
+  <si>
+    <t>/201762610</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,16 +70,13 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>28 ave. 23-69</t>
-  </si>
-  <si>
-    <t>Z. 7 Col. 4 de febrero</t>
-  </si>
-  <si>
-    <t>Guatemal</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
+    <t>LT. 1 MZNA. 35 CANTÓN CENTRAL</t>
+  </si>
+  <si>
+    <t>Z. 24</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
   </si>
   <si>
     <t/>
@@ -103,13 +100,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>2014-10-29</t>
-  </si>
-  <si>
-    <t>3 años</t>
-  </si>
-  <si>
-    <t>Masculino</t>
+    <t>2011-02-08</t>
+  </si>
+  <si>
+    <t>6 AÑOS</t>
+  </si>
+  <si>
+    <t>Femenino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -127,10 +124,13 @@
     <t>Soltero</t>
   </si>
   <si>
-    <t>Guatemalteco</t>
-  </si>
-  <si>
-    <t>Ins. Nac. 331027</t>
+    <t>ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>GUATEMALTECA</t>
+  </si>
+  <si>
+    <t>CUI: 2195863140101</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -145,10 +145,10 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>Fredy Misael Pérez García</t>
-  </si>
-  <si>
-    <t>Miryam Angélica Hernández González</t>
+    <t>MÁXIMO DE JESÚS ALVIZURES SAMAYOA</t>
+  </si>
+  <si>
+    <t>BRENDA CELESTE PÉREZ RODRÍGUEZ</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -160,13 +160,13 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>Miryam Hernández</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>33315313</t>
+    <t>MARÍA DEL CARMEN ALVIZURES SAMAYOA</t>
+  </si>
+  <si>
+    <t>TÍA</t>
+  </si>
+  <si>
+    <t>47057481</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -193,10 +193,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>23/10/2017</t>
-  </si>
-  <si>
-    <t>12:20:11</t>
+    <t>24/10/2017</t>
+  </si>
+  <si>
+    <t>14:20:55</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1144,17 +1144,17 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1171,91 +1171,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1263,12 +1263,12 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
@@ -1301,14 +1301,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
@@ -1411,14 +1411,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1460,7 +1460,7 @@
         <v>59</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>

--- a/reportes/I10.10.2.30.xlsx
+++ b/reportes/I10.10.2.30.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>ALVIZURES</t>
-  </si>
-  <si>
-    <t>PÉREZ</t>
-  </si>
-  <si>
-    <t>MELANY</t>
-  </si>
-  <si>
-    <t>THAILY</t>
-  </si>
-  <si>
-    <t>/201762610</t>
+    <t>LARIOS</t>
+  </si>
+  <si>
+    <t>MAYORGA</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>/201769494</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,24 +70,30 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>LT. 1 MZNA. 35 CANTÓN CENTRAL</t>
-  </si>
-  <si>
-    <t>Z. 24</t>
+    <t>1 AVE. FINAL LT. 5</t>
+  </si>
+  <si>
+    <t>COL. SANTA FAZ, Z. 6</t>
+  </si>
+  <si>
+    <t>CHINAUTLA</t>
   </si>
   <si>
     <t>GUATEMALA</t>
   </si>
   <si>
+    <t>22867041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección habitual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teléfono </t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Dirección habitual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teléfono </t>
-  </si>
-  <si>
     <t>Fecha de nacimiento (Día     Mes     Año )</t>
   </si>
   <si>
@@ -100,13 +106,16 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>2011-02-08</t>
-  </si>
-  <si>
-    <t>6 AÑOS</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>2002-08-09</t>
+  </si>
+  <si>
+    <t>15 AÑOS</t>
+  </si>
+  <si>
+    <t>CHINAUTLA, GUATEMALA</t>
+  </si>
+  <si>
+    <t>Masculino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -127,10 +136,10 @@
     <t>ESTUDIANTE</t>
   </si>
   <si>
-    <t>GUATEMALTECA</t>
-  </si>
-  <si>
-    <t>CUI: 2195863140101</t>
+    <t>GUATEMALTECO</t>
+  </si>
+  <si>
+    <t>CUI: 3028267340106</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -145,10 +154,10 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>MÁXIMO DE JESÚS ALVIZURES SAMAYOA</t>
-  </si>
-  <si>
-    <t>BRENDA CELESTE PÉREZ RODRÍGUEZ</t>
+    <t>CARLOS EDUARDO LARIOS MORATAYA</t>
+  </si>
+  <si>
+    <t>YENNIFER ALEJANDRA MAYORGA JORDAN</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -160,13 +169,13 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>MARÍA DEL CARMEN ALVIZURES SAMAYOA</t>
-  </si>
-  <si>
-    <t>TÍA</t>
-  </si>
-  <si>
-    <t>47057481</t>
+    <t>YENNIFER MAYORGA</t>
+  </si>
+  <si>
+    <t>MADRE</t>
+  </si>
+  <si>
+    <t>55385421</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -193,10 +202,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>24/10/2017</t>
-  </si>
-  <si>
-    <t>14:20:55</t>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>11:10:4</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1144,17 +1153,17 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1171,91 +1180,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1263,20 +1272,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1284,14 +1293,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1301,14 +1310,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1318,14 +1327,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1335,14 +1344,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1352,18 +1361,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1373,35 +1382,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1411,14 +1420,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1428,39 +1437,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1472,7 +1481,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1513,7 +1522,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1524,7 +1533,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1556,7 +1565,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1567,7 +1576,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1612,7 +1621,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1623,7 +1632,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1656,46 +1665,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1715,7 +1724,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1724,13 +1733,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1745,7 +1754,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/I10.10.2.30.xlsx
+++ b/reportes/I10.10.2.30.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>LARIOS</t>
-  </si>
-  <si>
-    <t>MAYORGA</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>/201769494</t>
+    <t>OSCAL</t>
+  </si>
+  <si>
+    <t>SOYOS</t>
+  </si>
+  <si>
+    <t>HIJA DE EVELYN</t>
+  </si>
+  <si>
+    <t>JOHANA</t>
+  </si>
+  <si>
+    <t>/201773451</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,19 +70,19 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>1 AVE. FINAL LT. 5</t>
-  </si>
-  <si>
-    <t>COL. SANTA FAZ, Z. 6</t>
-  </si>
-  <si>
-    <t>CHINAUTLA</t>
+    <t>7-15</t>
+  </si>
+  <si>
+    <t>CANTÓN EL CEMENTERIO</t>
+  </si>
+  <si>
+    <t>SAN PEDRO AYAMPUC</t>
   </si>
   <si>
     <t>GUATEMALA</t>
   </si>
   <si>
-    <t>22867041</t>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">Dirección habitual </t>
@@ -91,9 +91,6 @@
     <t xml:space="preserve">Teléfono </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Fecha de nacimiento (Día     Mes     Año )</t>
   </si>
   <si>
@@ -106,16 +103,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>2002-08-09</t>
-  </si>
-  <si>
-    <t>15 AÑOS</t>
-  </si>
-  <si>
-    <t>CHINAUTLA, GUATEMALA</t>
-  </si>
-  <si>
-    <t>Masculino</t>
+    <t>2017-11-06</t>
+  </si>
+  <si>
+    <t>14 DIAS</t>
+  </si>
+  <si>
+    <t>Femenino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -133,13 +127,10 @@
     <t>Soltero</t>
   </si>
   <si>
-    <t>ESTUDIANTE</t>
-  </si>
-  <si>
-    <t>GUATEMALTECO</t>
-  </si>
-  <si>
-    <t>CUI: 3028267340106</t>
+    <t>GUATEMALTECA</t>
+  </si>
+  <si>
+    <t>INF. NAC. 250652</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -154,10 +145,7 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>CARLOS EDUARDO LARIOS MORATAYA</t>
-  </si>
-  <si>
-    <t>YENNIFER ALEJANDRA MAYORGA JORDAN</t>
+    <t>EVELYN JOHANA OSCAL SOYOS</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -169,13 +157,13 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>YENNIFER MAYORGA</t>
-  </si>
-  <si>
-    <t>MADRE</t>
-  </si>
-  <si>
-    <t>55385421</t>
+    <t>EVELYN OSCAL</t>
+  </si>
+  <si>
+    <t>MAMÁ</t>
+  </si>
+  <si>
+    <t>50645513</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -202,10 +190,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>10/11/2017</t>
-  </si>
-  <si>
-    <t>11:10:4</t>
+    <t>20/11/2017</t>
+  </si>
+  <si>
+    <t>14:11:36</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1186,85 +1174,85 @@
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1272,20 +1260,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1293,14 +1281,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1310,14 +1298,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1327,14 +1315,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1344,14 +1332,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1361,18 +1349,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1382,35 +1370,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1420,14 +1408,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1437,39 +1425,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1481,7 +1469,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1522,7 +1510,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1533,7 +1521,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1565,7 +1553,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1576,7 +1564,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1621,7 +1609,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1632,7 +1620,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1665,46 +1653,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1724,7 +1712,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1733,13 +1721,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1754,7 +1742,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/I10.10.2.30.xlsx
+++ b/reportes/I10.10.2.30.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>OSCAL</t>
-  </si>
-  <si>
-    <t>SOYOS</t>
-  </si>
-  <si>
-    <t>HIJA DE EVELYN</t>
-  </si>
-  <si>
-    <t>JOHANA</t>
-  </si>
-  <si>
-    <t>/201773451</t>
+    <t>PEÑATE</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>/201774500</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,19 +70,19 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>7-15</t>
-  </si>
-  <si>
-    <t>CANTÓN EL CEMENTERIO</t>
-  </si>
-  <si>
-    <t>SAN PEDRO AYAMPUC</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
-  </si>
-  <si>
-    <t/>
+    <t>HOGAR "CASA SHALOM"</t>
+  </si>
+  <si>
+    <t>ALDEA LA EMBAULADA</t>
+  </si>
+  <si>
+    <t>SAN LUCAS</t>
+  </si>
+  <si>
+    <t>SACATEPEQUEZ</t>
+  </si>
+  <si>
+    <t>79686777</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección habitual </t>
@@ -103,13 +103,16 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>2017-11-06</t>
-  </si>
-  <si>
-    <t>14 DIAS</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>2006-09-16</t>
+  </si>
+  <si>
+    <t>11 AÑOS</t>
+  </si>
+  <si>
+    <t>AMATITLÁN, GUATEMALA</t>
+  </si>
+  <si>
+    <t>Masculino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -127,10 +130,13 @@
     <t>Soltero</t>
   </si>
   <si>
-    <t>GUATEMALTECA</t>
-  </si>
-  <si>
-    <t>INF. NAC. 250652</t>
+    <t>ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>GUATEMALTECO</t>
+  </si>
+  <si>
+    <t>CUI: 3443872910114</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -145,7 +151,7 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>EVELYN JOHANA OSCAL SOYOS</t>
+    <t>ESTELA PEÑATE DE HERNANDEZ</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -157,13 +163,13 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>EVELYN OSCAL</t>
-  </si>
-  <si>
-    <t>MAMÁ</t>
-  </si>
-  <si>
-    <t>50645513</t>
+    <t>CAROLINA GONZALEZ</t>
+  </si>
+  <si>
+    <t>ENCARGADA</t>
+  </si>
+  <si>
+    <t>31836250</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -190,10 +196,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>20/11/2017</t>
-  </si>
-  <si>
-    <t>14:11:36</t>
+    <t>23/11/2017</t>
+  </si>
+  <si>
+    <t>9:1:21</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1174,24 +1180,24 @@
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K10" s="7"/>
     </row>
@@ -1229,30 +1235,30 @@
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1260,20 +1266,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1281,14 +1287,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1298,14 +1304,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1315,14 +1321,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1332,14 +1338,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1349,18 +1355,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1370,35 +1376,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1408,14 +1414,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1425,39 +1431,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1469,7 +1475,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1510,7 +1516,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1521,7 +1527,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1553,7 +1559,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1564,7 +1570,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1609,7 +1615,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1620,7 +1626,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1653,46 +1659,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1712,7 +1718,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1721,13 +1727,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1742,7 +1748,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
